--- a/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-1,79</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 11,22</t>
+          <t>-20,14; 12,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 13,67</t>
+          <t>-20,5; 14,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 9,48</t>
+          <t>-18,91; 23,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 9,11</t>
+          <t>-14,4; 19,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 8,52</t>
+          <t>-15,24; 18,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 9,13</t>
+          <t>-18,02; 16,62</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-11,37; 12,15</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-12,11; 12,65</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-12,52; 13,61</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>-17,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>-10,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,7%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,74%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>-7,15%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-1,34%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-0,86%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,34; 96,03</t>
+          <t>-76,3; 143,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 108,82</t>
+          <t>-76,64; 153,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,14; 52,19</t>
+          <t>-67,27; 236,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,36; 45,29</t>
+          <t>-46,94; 118,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,37; 51,84</t>
+          <t>-49,5; 111,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,95; 52,46</t>
+          <t>-56,7; 96,85</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-45,27; 84,15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-47,51; 90,95</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-48,83; 93,69</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,82</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 6,92</t>
+          <t>-19,2; 3,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 8,28</t>
+          <t>-20,4; 1,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 7,66</t>
+          <t>-22,24; 2,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 7,79</t>
+          <t>-7,58; 7,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 5,21</t>
+          <t>-6,3; 9,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 5,27</t>
+          <t>-7,61; 9,14</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-10,9; 2,83</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-10,49; 3,31</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-10,33; 3,7</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,73%</t>
+          <t>-35,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>-40,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>-34,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,4%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,37%</t>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-16,88%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-15,33%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-15,27%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,61; 52,05</t>
+          <t>-74,59; 38,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,46; 58,67</t>
+          <t>-78,74; 23,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 41,58</t>
+          <t>-78,84; 28,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 42,54</t>
+          <t>-37,11; 61,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 30,77</t>
+          <t>-31,21; 75,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 30,03</t>
+          <t>-35,82; 66,12</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-48,31; 22,71</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-46,73; 24,14</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-47,57; 30,38</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>-6,39</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-2,95</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 13,03</t>
+          <t>-11,34; 12,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 10,17</t>
+          <t>-12,82; 10,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 9,17</t>
+          <t>-10,71; 12,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 8,64</t>
+          <t>-5,8; 11,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 8,37</t>
+          <t>-6,91; 10,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 7,0</t>
+          <t>-14,74; 2,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,7; 9,2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 7,9</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-10,66; 3,71</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>-35,09%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9,26%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-16,05%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 125,53</t>
+          <t>-50,07; 91,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,1; 95,82</t>
+          <t>-52,22; 79,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 65,91</t>
+          <t>-45,95; 91,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 57,7</t>
+          <t>-27,85; 90,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 57,91</t>
+          <t>-31,45; 77,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 50,06</t>
+          <t>-64,67; 15,29</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-25,36; 64,27</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-29,66; 56,59</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-46,62; 27,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 6,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 6,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 5,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 4,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 4,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 3,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 44,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 46,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 29,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 25,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 23,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 22,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-2,82</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-3,66</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-11,0; 3,85</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-12,15; 2,63</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-10,45; 4,56</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 6,44</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 7,25</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 3,67</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 3,71</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 3,58</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; 2,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-16,52%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-21,5%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-10,56%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>8,06%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-10,58%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-4,07%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-5,93%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-10,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-47,9; 30,2</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-54,9; 21,84</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-46,17; 34,27</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-20,81; 41,51</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-17,8; 46,2</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-35,53; 24,35</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-26,77; 24,85</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-28,62; 22,92</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-33,39; 17,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
